--- a/misc/performance-evaluation/performance-report-02.xlsx
+++ b/misc/performance-evaluation/performance-report-02.xlsx
@@ -94,7 +94,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -139,20 +139,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -309,7 +302,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -669,11 +662,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="63209869"/>
-        <c:axId val="67535770"/>
+        <c:axId val="10107134"/>
+        <c:axId val="29408929"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63209869"/>
+        <c:axId val="10107134"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -747,14 +740,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67535770"/>
+        <c:crossAx val="29408929"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67535770"/>
+        <c:axId val="29408929"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -838,7 +831,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63209869"/>
+        <c:crossAx val="10107134"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -875,7 +868,4063 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0502363349896982"/>
+          <c:y val="0.0930260617760618"/>
+          <c:w val="0.706459823051751"/>
+          <c:h val="0.811414092664093"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Run02!$K$67:$K$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BNCE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Run02!$L$67:$L$70</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Run02!$P$67:$P$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.023861</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1584492</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3559396</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.662931</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="90578729"/>
+        <c:axId val="45929862"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="90578729"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.775360562356078"/>
+              <c:y val="0.886583011583011"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45929862"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="45929862"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Runtime (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00266634347351836"/>
+              <c:y val="0.000120656370656371"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="90578729"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0584653582407188"/>
+          <c:y val="0.109942638623327"/>
+          <c:w val="0.662331520454008"/>
+          <c:h val="0.787404397705545"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Run03!$K$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BNCE Deep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Run03!$L$3:$L$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Run03!$P$3:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0249526</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1847061</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1755136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5646188</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Run03!$K$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BNCE Shallow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Run03!$L$3:$L$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Run03!$P$7:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.038942</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4528565</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9723434</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.222937</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Run03!$K$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>eMoflon Deep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Run03!$L$3:$L$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Run03!$P$11:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0036086</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0009162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0009233</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0008982</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Run03!$K$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>eMoflon Shallow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Run03!$L$3:$L$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Run03!$P$15:$P$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0007623</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0008756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0008432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0008743</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="30496350"/>
+        <c:axId val="76718610"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="30496350"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.742787893118941"/>
+              <c:y val="0.87093690248566"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="76718610"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="76718610"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Runtime (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.000118231260345235"/>
+              <c:y val="0.00621414913957935"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="30496350"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.731600735970561"/>
+          <c:y val="0.334847036328872"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0694101024373013"/>
+          <c:y val="0.108365253923143"/>
+          <c:w val="0.653714823972683"/>
+          <c:h val="0.784628691461757"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Run03!$K$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BNCE Deep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Run03!$L$19:$L$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Run03!$P$19:$P$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0245499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0778165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1581899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3478764</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Run03!$K$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BNCE Shallow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Run03!$L$19:$L$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Run03!$P$23:$P$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.1847675</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.976397</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Run03!$K$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>eMoflon Deep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Run03!$L$19:$L$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Run03!$P$27:$P$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0030504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0006905</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0006408</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0006662</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Run03!$K$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>eMoflon Shallow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Run03!$L$19:$L$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Run03!$P$31:$P$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.000727</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0006375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0006467</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0007165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="62684670"/>
+        <c:axId val="69222796"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="62684670"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.746320499234664"/>
+              <c:y val="0.866798467811689"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="69222796"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="69222796"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Runtime (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="5.88720122453785E-005"/>
+              <c:y val="0"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="62684670"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.734051082350246"/>
+          <c:y val="0.34461880637588"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.074426346451076"/>
+          <c:y val="0.115450121654501"/>
+          <c:w val="0.648614909047676"/>
+          <c:h val="0.780413625304136"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Run03!$K$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BNCE Deep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Run03!$L$35:$L$38</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Run03!$P$35:$P$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.442813</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Run03!$K$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BNCE Shallow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Run03!$L$35:$L$38</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Run03!$P$39:$P$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.0303771</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Run03!$K$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>eMoflon Deep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Run03!$L$35:$L$38</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Run03!$P$43:$P$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0026232</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0007249</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0007366</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0007571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Run03!$K$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>eMoflon Shallow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Run03!$L$35:$L$38</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Run03!$P$47:$P$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0007224</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0006998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0007345</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0007141</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="80063734"/>
+        <c:axId val="59537791"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="80063734"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.742658423493045"/>
+              <c:y val="0.869586374695864"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="59537791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="59537791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Runtime(s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00445844727143027"/>
+              <c:y val="0"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80063734"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.732917100242803"/>
+          <c:y val="0.346958637469586"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0660708966338993"/>
+          <c:y val="0.103269818866149"/>
+          <c:w val="0.650104259755734"/>
+          <c:h val="0.783109856504352"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Run03!$K$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BNCE Deep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Run03!$L$51:$L$54</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Run03!$P$51:$P$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.215775</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8634107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6536911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.2991213</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Run03!$K$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BNCE Shallow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Run03!$L$51:$L$54</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Run03!$P$55:$P$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.1530652</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.2758947</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Run03!$K$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>eMoflon Deep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Run03!$L$51:$L$54</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Run03!$P$59:$P$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0026021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0008901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0009285</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0007382</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Run03!$K$63</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>eMoflon Shallow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Run03!$L$51:$L$54</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Run03!$P$63:$P$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0009187</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0010323</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0009653</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0049514</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="54132084"/>
+        <c:axId val="39021042"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="54132084"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.738635686624963"/>
+              <c:y val="0.863561514937662"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="39021042"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="39021042"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Runtime (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00011915400655347"/>
+              <c:y val="0.00529287226534933"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="54132084"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.727998136175665"/>
+          <c:y val="0.346252598117129"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0754688559162461"/>
+          <c:y val="0.110012062726176"/>
+          <c:w val="0.817353317767568"/>
+          <c:h val="0.793124246079614"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Run03!$K$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BNCE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Run03!$L$67:$L$70</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Run03!$P$67:$P$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0309282</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1467678</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3414266</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6529704</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="31879977"/>
+        <c:axId val="18400268"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="31879977"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.926489417790164"/>
+              <c:y val="0.8854041013269"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="18400268"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="18400268"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Runtime (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00286209234013708"/>
+              <c:y val="0.000120627261761158"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="31879977"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0890013940861398"/>
+          <c:y val="0.108429261047159"/>
+          <c:w val="0.823464670922298"/>
+          <c:h val="0.784750587944053"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Run03!$K$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BNCE Deep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Run03!$L$19:$L$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Run03!$P$19:$P$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0245499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0778165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1581899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3478764</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Run03!$K$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>eMoflon Deep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Run03!$L$19:$L$22</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Run03!$P$27:$P$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0030504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0006905</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0006408</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0006662</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="82554120"/>
+        <c:axId val="11990392"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="82554120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.929928828233913"/>
+              <c:y val="0.87535586087387"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="11990392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="11990392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Runtime (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="7.33729547288869E-005"/>
+              <c:y val="0"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82554120"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.058492960299716"/>
+          <c:y val="0.109942638623327"/>
+          <c:w val="0.685358631941507"/>
+          <c:h val="0.787404397705545"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Run03!$K$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>eMoflon Deep</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Run03!$L$3:$L$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Run03!$P$11:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0036086</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0009162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0009233</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0008982</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Run03!$K$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>eMoflon Shallow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Run03!$L$3:$L$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Run03!$P$15:$P$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0007623</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0008756</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0008432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0008743</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="33215108"/>
+        <c:axId val="39111202"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="33215108"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.76886820955949"/>
+              <c:y val="0.86675430210325"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="39111202"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="39111202"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Runtime (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="0.00621414913957935"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="33215108"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1235,11 +5284,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="28692470"/>
-        <c:axId val="93717616"/>
+        <c:axId val="36467311"/>
+        <c:axId val="61867706"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="28692470"/>
+        <c:axId val="36467311"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1313,14 +5362,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93717616"/>
+        <c:crossAx val="61867706"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93717616"/>
+        <c:axId val="61867706"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1404,7 +5453,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="28692470"/>
+        <c:crossAx val="36467311"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1441,7 +5490,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1801,11 +5850,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="83411173"/>
-        <c:axId val="82340184"/>
+        <c:axId val="3654997"/>
+        <c:axId val="77159406"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83411173"/>
+        <c:axId val="3654997"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1879,14 +5928,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82340184"/>
+        <c:crossAx val="77159406"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82340184"/>
+        <c:axId val="77159406"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1970,7 +6019,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83411173"/>
+        <c:crossAx val="3654997"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2007,7 +6056,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2367,11 +6416,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="36485233"/>
-        <c:axId val="96037603"/>
+        <c:axId val="56397686"/>
+        <c:axId val="22538949"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="36485233"/>
+        <c:axId val="56397686"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2445,14 +6494,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96037603"/>
+        <c:crossAx val="22538949"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96037603"/>
+        <c:axId val="22538949"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2536,7 +6585,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36485233"/>
+        <c:crossAx val="56397686"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2573,7 +6622,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2619,9 +6668,7 @@
             <c:idx val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="004586">
-                  <a:alpha val="-17698000"/>
-                </a:srgbClr>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="6407280">
                 <a:noFill/>
@@ -2634,7 +6681,7 @@
               <a:solidFill>
                 <a:srgbClr val="ff420e"/>
               </a:solidFill>
-              <a:ln w="6022292400">
+              <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -2645,7 +6692,7 @@
               <a:solidFill>
                 <a:srgbClr val="ffd320"/>
               </a:solidFill>
-              <a:ln w="6035662080">
+              <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -2654,9 +6701,7 @@
             <c:idx val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c">
-                  <a:alpha val="-1446784704"/>
-                </a:srgbClr>
+                <a:srgbClr val="579d1c"/>
               </a:solidFill>
               <a:ln w="2067066720">
                 <a:noFill/>
@@ -2664,6 +6709,42 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -2703,11 +6784,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="88838596"/>
-        <c:axId val="24169197"/>
+        <c:axId val="26584613"/>
+        <c:axId val="57125300"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88838596"/>
+        <c:axId val="26584613"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2781,14 +6862,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24169197"/>
+        <c:crossAx val="57125300"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="24169197"/>
+        <c:axId val="57125300"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2872,7 +6953,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88838596"/>
+        <c:crossAx val="26584613"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2909,7 +6990,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2920,10 +7001,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0584764265061663"/>
-          <c:y val="0.109929501732585"/>
-          <c:w val="0.685372042249366"/>
-          <c:h val="0.787549289042896"/>
+          <c:x val="0.0584438866977411"/>
+          <c:y val="0.109942638623327"/>
+          <c:w val="0.685311342177602"/>
+          <c:h val="0.787404397705545"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3280,11 +7361,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="90235441"/>
-        <c:axId val="44539352"/>
+        <c:axId val="47141961"/>
+        <c:axId val="9781416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90235441"/>
+        <c:axId val="47141961"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3330,8 +7411,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.768867646191066"/>
-              <c:y val="0.866889712032501"/>
+              <c:x val="0.768794071949325"/>
+              <c:y val="0.86675430210325"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3366,14 +7447,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44539352"/>
+        <c:crossAx val="9781416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44539352"/>
+        <c:axId val="9781416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3430,7 +7511,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0"/>
-              <c:y val="0.00621340661966782"/>
+              <c:y val="0.00621414913957935"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3465,7 +7546,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="90235441"/>
+        <c:crossAx val="47141961"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3502,7 +7583,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3513,10 +7594,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0666431178617685"/>
-          <c:y val="0.10863371732937"/>
-          <c:w val="0.67961850936065"/>
-          <c:h val="0.785086089433916"/>
+          <c:x val="0.0666547427413104"/>
+          <c:y val="0.108647175421209"/>
+          <c:w val="0.679604125678173"/>
+          <c:h val="0.784935579781962"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3873,11 +7954,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="44583438"/>
-        <c:axId val="88004652"/>
+        <c:axId val="33997414"/>
+        <c:axId val="44069503"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="44583438"/>
+        <c:axId val="33997414"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3923,8 +8004,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.771694336512422"/>
-              <c:y val="0.884429580081754"/>
+              <c:x val="0.771656829428248"/>
+              <c:y val="0.884291377601586"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3959,14 +8040,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88004652"/>
+        <c:crossAx val="44069503"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88004652"/>
+        <c:axId val="44069503"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4022,8 +8103,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00406216884493112"/>
-              <c:y val="0.00668896321070234"/>
+              <c:x val="0.00405413462111727"/>
+              <c:y val="0.00668979187314172"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4058,7 +8139,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44583438"/>
+        <c:crossAx val="33997414"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4095,7 +8176,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4106,10 +8187,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0639075580709822"/>
-          <c:y val="0.0996467291996589"/>
-          <c:w val="0.687301025822427"/>
-          <c:h val="0.797417468631989"/>
+          <c:x val="0.0638844110096125"/>
+          <c:y val="0.0996588693957115"/>
+          <c:w val="0.68726491133799"/>
+          <c:h val="0.797270955165692"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4466,11 +8547,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="50214384"/>
-        <c:axId val="19865560"/>
+        <c:axId val="89192154"/>
+        <c:axId val="37281025"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50214384"/>
+        <c:axId val="89192154"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4516,8 +8597,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.77644145737531"/>
-              <c:y val="0.886831526373492"/>
+              <c:x val="0.776404561466356"/>
+              <c:y val="0.886695906432749"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4552,14 +8633,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="19865560"/>
+        <c:crossAx val="37281025"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="19865560"/>
+        <c:axId val="37281025"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4643,7 +8724,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="50214384"/>
+        <c:crossAx val="89192154"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4680,7 +8761,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4691,10 +8772,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0569409808811305"/>
-          <c:y val="0.0997555012224939"/>
-          <c:w val="0.701579384871155"/>
-          <c:h val="0.800244498777506"/>
+          <c:x val="0.0569487040712009"/>
+          <c:y val="0.0997676977625627"/>
+          <c:w val="0.701545492813759"/>
+          <c:h val="0.800097811468395"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -5051,11 +9132,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="58271706"/>
-        <c:axId val="29524790"/>
+        <c:axId val="76994762"/>
+        <c:axId val="6206283"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58271706"/>
+        <c:axId val="76994762"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5101,8 +9182,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.777876736729605"/>
-              <c:y val="0.870782396088019"/>
+              <c:x val="0.777857958987311"/>
+              <c:y val="0.87064433304805"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5137,14 +9218,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29524790"/>
+        <c:crossAx val="6206283"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="29524790"/>
+        <c:axId val="6206283"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5228,4077 +9309,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58271706"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart61.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0502542626383488"/>
-          <c:y val="0.0930148389431777"/>
-          <c:w val="0.706491175590787"/>
-          <c:h val="0.811557485824587"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Run02!$K$67:$K$67</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BNCE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586">
-                  <a:alpha val="-17698000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="6407280">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln w="6022292400">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln w="6035662080">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c">
-                  <a:alpha val="-1446784704"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="2067066720">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Run02!$L$67:$L$70</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Run02!$P$67:$P$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.023861</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1584492</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3559396</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.662931</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="23415256"/>
-        <c:axId val="84411006"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="23415256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.775411307209094"/>
-              <c:y val="0.886717336228737"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="84411006"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="84411006"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="6480">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Runtime (s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.00269219264134011"/>
-              <c:y val="0.000120641814452889"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="23415256"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart62.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0584751609935603"/>
-          <c:y val="0.109942638623327"/>
-          <c:w val="0.662373505059798"/>
-          <c:h val="0.787523900573614"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Run03!$K$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BNCE Deep</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Run03!$L$3:$L$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Run03!$P$3:$P$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.0249526</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1847061</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1755136</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5646188</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Run03!$K$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BNCE Shallow</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Run03!$L$3:$L$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Run03!$P$7:$P$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.038942</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.4528565</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.9723434</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25.222937</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Run03!$K$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>eMoflon Deep</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Run03!$L$3:$L$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Run03!$P$11:$P$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.0036086</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0009162</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0009233</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0008982</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Run03!$K$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>eMoflon Shallow</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Run03!$L$3:$L$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Run03!$P$15:$P$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.0007623</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0008756</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0008432</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0008743</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="54121085"/>
-        <c:axId val="14393533"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="54121085"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.742827574311505"/>
-              <c:y val="0.871071812641893"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="14393533"/>
-        <c:crossesAt val="0"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="14393533"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="6480">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Runtime (s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="5.74943942965561E-005"/>
-              <c:y val="0.00621340661966782"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="54121085"/>
-        <c:crossesAt val="1"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.731600735970561"/>
-          <c:y val="0.334847036328872"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart63.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0694078570610469"/>
-          <c:y val="0.108427035709873"/>
-          <c:w val="0.653762455617913"/>
-          <c:h val="0.784752255035216"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Run03!$K$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BNCE Deep</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Run03!$L$19:$L$22</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Run03!$P$19:$P$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.0245499</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0778165</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1581899</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3478764</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Run03!$K$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BNCE Shallow</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Run03!$L$19:$L$22</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Run03!$P$23:$P$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.1847675</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.976397</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Run03!$K$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>eMoflon Deep</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Run03!$L$19:$L$22</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Run03!$P$27:$P$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.0030504</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0006905</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0006408</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0006662</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Run03!$K$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>eMoflon Shallow</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Run03!$L$19:$L$22</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Run03!$P$31:$P$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.000727</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0006375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0006467</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0007165</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="92893564"/>
-        <c:axId val="13051998"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="92893564"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.746378056462234"/>
-              <c:y val="0.866938472942921"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="13051998"/>
-        <c:crossesAt val="0"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="13051998"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="6480">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Runtime (s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0"/>
-              <c:y val="0"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="92893564"/>
-        <c:crossesAt val="1"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.734051082350246"/>
-          <c:y val="0.34461880637588"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart64.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0744016649323621"/>
-          <c:y val="0.115450121654501"/>
-          <c:w val="0.648629899410336"/>
-          <c:h val="0.780535279805353"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Run03!$K$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BNCE Deep</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Run03!$L$35:$L$38</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Run03!$P$35:$P$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.442813</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Run03!$K$39</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BNCE Shallow</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Run03!$L$35:$L$38</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Run03!$P$39:$P$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>9.0303771</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Run03!$K$43</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>eMoflon Deep</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Run03!$L$35:$L$38</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Run03!$P$43:$P$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.0026232</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0007249</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0007366</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0007571</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Run03!$K$47</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>eMoflon Shallow</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Run03!$L$35:$L$38</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Run03!$P$47:$P$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.0007224</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0006998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0007345</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0007141</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="62012656"/>
-        <c:axId val="46042112"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="62012656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.742701890282675"/>
-              <c:y val="0.869723877873738"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="46042112"/>
-        <c:crossesAt val="0"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="46042112"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="6480">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Runtime(s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.00439331753280537"/>
-              <c:y val="0"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="62012656"/>
-        <c:crossesAt val="1"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.732917100242803"/>
-          <c:y val="0.346958637469586"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart65.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.066055790755669"/>
-          <c:y val="0.103306271326038"/>
-          <c:w val="0.65011888882445"/>
-          <c:h val="0.783150958936345"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Run03!$K$51</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BNCE Deep</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Run03!$L$51:$L$54</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Run03!$P$51:$P$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.215775</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8634107</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.6536911</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29.2991213</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Run03!$K$55</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BNCE Shallow</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Run03!$L$51:$L$54</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Run03!$P$55:$P$58</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.1530652</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.2758947</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>120</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Run03!$K$59</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>eMoflon Deep</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Run03!$L$51:$L$54</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Run03!$P$59:$P$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.0026021</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0008901</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0009285</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0007382</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Run03!$K$63</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>eMoflon Shallow</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Run03!$L$51:$L$54</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Run03!$P$63:$P$66</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.0009187</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0010323</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0009653</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0049514</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="546948"/>
-        <c:axId val="44966308"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="546948"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.738674545243888"/>
-              <c:y val="0.863695166411855"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="44966308"/>
-        <c:crossesAt val="0"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="44966308"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="6480">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Runtime (s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="5.79307148650214E-005"/>
-              <c:y val="0.00529224979419029"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="546948"/>
-        <c:crossesAt val="1"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.727998136175665"/>
-          <c:y val="0.346252598117129"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart66.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0754378251630395"/>
-          <c:y val="0.110012062726176"/>
-          <c:w val="0.817395764636916"/>
-          <c:h val="0.793244873341375"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Run03!$K$67</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BNCE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586">
-                  <a:alpha val="-17698000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="6407280">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:ln w="6022292400">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:ln w="6035662080">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c">
-                  <a:alpha val="-1446784704"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="2067066720">
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Run03!$L$67:$L$70</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Run03!$P$67:$P$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.0309282</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1467678</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3414266</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6529704</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="36014797"/>
-        <c:axId val="13457877"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="36014797"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.92658264947245"/>
-              <c:y val="0.885538535761669"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="13457877"/>
-        <c:crossesAt val="0"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="13457877"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="6480">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Runtime (s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.00278429073856975"/>
-              <c:y val="0.000120612712579906"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="36014797"/>
-        <c:crossesAt val="1"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart67.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0889845584572689"/>
-          <c:y val="0.108491149894789"/>
-          <c:w val="0.823525225930406"/>
-          <c:h val="0.784874365639312"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Run03!$K$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BNCE Deep</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Run03!$L$19:$L$22</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Run03!$P$19:$P$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.0245499</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0778165</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1581899</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3478764</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Run03!$K$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>eMoflon Deep</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Run03!$L$19:$L$22</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Run03!$P$27:$P$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.0030504</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0006905</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0006408</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0006662</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Run03!$K$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>eMoflon Shallow</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Run03!$L$19:$L$22</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Run03!$P$31:$P$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.000727</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0006375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0006467</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0007165</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="10932611"/>
-        <c:axId val="17947396"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="10932611"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.929984346093639"/>
-              <c:y val="0.87549504950495"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="17947396"/>
-        <c:crossesAt val="0"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="17947396"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="6480">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Runtime (s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0"/>
-              <c:y val="0"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="10932611"/>
-        <c:crossesAt val="1"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart68.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0584953309449698"/>
-          <c:y val="0.109929501732585"/>
-          <c:w val="0.685382040288953"/>
-          <c:h val="0.787549289042896"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Run03!$K$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>eMoflon Deep</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Run03!$L$3:$L$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Run03!$P$11:$P$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.0036086</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0009162</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0009233</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0008982</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Run03!$K$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>eMoflon Shallow</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Run03!$L$3:$L$6</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Run03!$P$15:$P$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.0007623</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.0008756</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0008432</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.0008743</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="85889099"/>
-        <c:axId val="27899390"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="85889099"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Size</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.768896458565807"/>
-              <c:y val="0.866889712032501"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="27899390"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="27899390"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="6480">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:uFill>
-                      <a:solidFill>
-                        <a:srgbClr val="ffffff"/>
-                      </a:solidFill>
-                    </a:uFill>
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Runtime (s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0"/>
-              <c:y val="0.00621340661966782"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="85889099"/>
+        <c:crossAx val="76994762"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9346,9 +9357,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>624960</xdr:colOff>
+      <xdr:colOff>624600</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9356,8 +9367,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13499280" y="410400"/>
-        <a:ext cx="5689800" cy="2954160"/>
+        <a:off x="13289760" y="410400"/>
+        <a:ext cx="5622840" cy="2953800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9376,9 +9387,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>618840</xdr:colOff>
+      <xdr:colOff>618480</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>61200</xdr:rowOff>
+      <xdr:rowOff>60840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9386,8 +9397,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13493160" y="3441600"/>
-        <a:ext cx="5689800" cy="2905920"/>
+        <a:off x="13283640" y="3441600"/>
+        <a:ext cx="5622840" cy="2905560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9406,9 +9417,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>595440</xdr:colOff>
+      <xdr:colOff>595080</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>97560</xdr:rowOff>
+      <xdr:rowOff>97200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9416,8 +9427,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13519080" y="6525720"/>
-        <a:ext cx="5640480" cy="2906280"/>
+        <a:off x="13309560" y="6525720"/>
+        <a:ext cx="5573520" cy="2905920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9436,9 +9447,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>664560</xdr:colOff>
+      <xdr:colOff>664200</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
+      <xdr:rowOff>96840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9446,8 +9457,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13538880" y="9564120"/>
-        <a:ext cx="5689800" cy="2915280"/>
+        <a:off x="13329360" y="9564120"/>
+        <a:ext cx="5622840" cy="2914920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9466,9 +9477,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>694440</xdr:colOff>
+      <xdr:colOff>694080</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
+      <xdr:rowOff>96840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9476,8 +9487,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13568760" y="12621600"/>
-        <a:ext cx="5689800" cy="2905920"/>
+        <a:off x="13359240" y="12621600"/>
+        <a:ext cx="5622840" cy="2905560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9501,9 +9512,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>270360</xdr:colOff>
+      <xdr:colOff>270000</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9511,8 +9522,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13467240" y="381240"/>
-        <a:ext cx="6100560" cy="3012480"/>
+        <a:off x="13257720" y="381240"/>
+        <a:ext cx="6023880" cy="3012120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9531,9 +9542,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>259200</xdr:colOff>
+      <xdr:colOff>258840</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
+      <xdr:rowOff>96840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9541,8 +9552,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13442040" y="3477600"/>
-        <a:ext cx="6114600" cy="2905920"/>
+        <a:off x="13232520" y="3477600"/>
+        <a:ext cx="6037920" cy="2905560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9561,9 +9572,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>258480</xdr:colOff>
+      <xdr:colOff>258120</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9571,8 +9582,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13449960" y="6505920"/>
-        <a:ext cx="6105960" cy="2954880"/>
+        <a:off x="13240440" y="6505920"/>
+        <a:ext cx="6029280" cy="2954520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9591,9 +9602,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>228960</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9601,8 +9612,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13463640" y="9564120"/>
-        <a:ext cx="6062760" cy="2944440"/>
+        <a:off x="13254120" y="9564120"/>
+        <a:ext cx="5986080" cy="2944080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9621,9 +9632,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>228240</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:rowOff>145440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9631,8 +9642,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13509000" y="12592440"/>
-        <a:ext cx="6017040" cy="2983680"/>
+        <a:off x="13299480" y="12592440"/>
+        <a:ext cx="5940360" cy="2983320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9656,9 +9667,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>554760</xdr:colOff>
+      <xdr:colOff>554400</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9666,8 +9677,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11333520" y="381240"/>
-        <a:ext cx="6261120" cy="3012480"/>
+        <a:off x="11019240" y="381240"/>
+        <a:ext cx="6089400" cy="3012120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9686,9 +9697,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>555480</xdr:colOff>
+      <xdr:colOff>555120</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>101160</xdr:rowOff>
+      <xdr:rowOff>100800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9696,8 +9707,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11309040" y="3474000"/>
-        <a:ext cx="6286320" cy="2913480"/>
+        <a:off x="10994760" y="3474000"/>
+        <a:ext cx="6114600" cy="2913120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9716,9 +9727,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>500040</xdr:colOff>
+      <xdr:colOff>499680</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>127080</xdr:rowOff>
+      <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9726,8 +9737,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11312640" y="6502320"/>
-        <a:ext cx="6227280" cy="2959200"/>
+        <a:off x="10998360" y="6502320"/>
+        <a:ext cx="6055560" cy="2958840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9746,9 +9757,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>473400</xdr:colOff>
+      <xdr:colOff>473040</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9756,8 +9767,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11299320" y="9499680"/>
-        <a:ext cx="6213960" cy="3060720"/>
+        <a:off x="10985040" y="9499680"/>
+        <a:ext cx="6042240" cy="3060360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9776,9 +9787,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>528120</xdr:colOff>
+      <xdr:colOff>527760</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>50760</xdr:rowOff>
+      <xdr:rowOff>50400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9786,8 +9797,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11378880" y="12877560"/>
-        <a:ext cx="4912920" cy="2984400"/>
+        <a:off x="11064600" y="12877560"/>
+        <a:ext cx="4779360" cy="2984040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9799,16 +9810,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>632520</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>13320</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>586080</xdr:colOff>
+      <xdr:colOff>585720</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>51120</xdr:rowOff>
+      <xdr:rowOff>50760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9816,8 +9827,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17672400" y="3429000"/>
-        <a:ext cx="5059080" cy="2908440"/>
+        <a:off x="17186760" y="3429000"/>
+        <a:ext cx="4906080" cy="2908080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9836,9 +9847,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>385560</xdr:colOff>
+      <xdr:colOff>385200</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9846,8 +9857,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17678160" y="380880"/>
-        <a:ext cx="6129360" cy="3012480"/>
+        <a:off x="17173440" y="380880"/>
+        <a:ext cx="5957280" cy="3012120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -9873,19 +9884,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="3.78061224489796"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="3.64285714285714"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21978,19 +21989,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="3.78061224489796"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="3.64285714285714"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34077,16 +34088,16 @@
   </sheetPr>
   <dimension ref="A1:Q660"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AD60" activeCellId="0" sqref="AD60"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AL35" activeCellId="0" sqref="AL35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.77551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
